--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24411"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8156D42C-D62D-42F3-8EA9-BD91B7D4BA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F862293-CC4C-4B39-B29C-80198A9CEB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="206">
   <si>
     <t>notes</t>
   </si>
@@ -283,6 +283,9 @@
     <t>Colonialism</t>
   </si>
   <si>
+    <t>Plantations</t>
+  </si>
+  <si>
     <t>Trading Companies</t>
   </si>
   <si>
@@ -307,6 +310,9 @@
     <t>Steam Pumps</t>
   </si>
   <si>
+    <t>Carracks</t>
+  </si>
+  <si>
     <t>Pike Square</t>
   </si>
   <si>
@@ -331,7 +337,7 @@
     <t>Machinery</t>
   </si>
   <si>
-    <t>Costal Batteries</t>
+    <t>Coastal Batteries</t>
   </si>
   <si>
     <t>Arquebus</t>
@@ -352,7 +358,7 @@
     <t>+0.5 art fire, +0.05 art shock, new art</t>
   </si>
   <si>
-    <t>Textiles</t>
+    <t>Textile Manufactory</t>
   </si>
   <si>
     <t>Steamers</t>
@@ -367,6 +373,9 @@
     <t>Colonial Thought</t>
   </si>
   <si>
+    <t>Colonial Charters</t>
+  </si>
+  <si>
     <t>Weapons Manufactory</t>
   </si>
   <si>
@@ -388,6 +397,9 @@
     <t>+0.2 inf fire, 3 combat width</t>
   </si>
   <si>
+    <t>Modern Metallurgy</t>
+  </si>
+  <si>
     <t>Lineships</t>
   </si>
   <si>
@@ -397,7 +409,10 @@
     <t>+0.25 tactics, +0.2 inf fire</t>
   </si>
   <si>
-    <t>Scientific Enquirer</t>
+    <t>Scientific Enquiry</t>
+  </si>
+  <si>
+    <t>Screw Propeller</t>
   </si>
   <si>
     <t>Trunnions</t>
@@ -409,6 +424,9 @@
     <t>Military Administration</t>
   </si>
   <si>
+    <t>Merchantman</t>
+  </si>
+  <si>
     <t>Volley fire</t>
   </si>
   <si>
@@ -442,6 +460,12 @@
     <t>Bastions Building (Level 4 fort)</t>
   </si>
   <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Threedeckers</t>
+  </si>
+  <si>
     <t>Standardization</t>
   </si>
   <si>
@@ -454,6 +478,9 @@
     <t>Religious Edifice</t>
   </si>
   <si>
+    <t>Naval Proffessionalization</t>
+  </si>
+  <si>
     <t>Air Ships</t>
   </si>
   <si>
@@ -463,6 +490,9 @@
     <t>Rights of Nations</t>
   </si>
   <si>
+    <t>Steam Turbine</t>
+  </si>
+  <si>
     <t>Killing Grounds</t>
   </si>
   <si>
@@ -472,6 +502,9 @@
     <t>New Thought</t>
   </si>
   <si>
+    <t>Merchant Vessels</t>
+  </si>
+  <si>
     <t>Steam air ships</t>
   </si>
   <si>
@@ -481,6 +514,9 @@
     <t>Land Clearance</t>
   </si>
   <si>
+    <t>All-or-Nothing Armor Scheme</t>
+  </si>
+  <si>
     <t>Ankon Armor</t>
   </si>
   <si>
@@ -493,6 +529,9 @@
     <t>Rights of Mortals</t>
   </si>
   <si>
+    <t>Joint Stock Companies</t>
+  </si>
+  <si>
     <t>Specialized Regiments</t>
   </si>
   <si>
@@ -502,7 +541,10 @@
     <t>Industrial Production</t>
   </si>
   <si>
-    <t>Breach-loading</t>
+    <t>Public Punishments</t>
+  </si>
+  <si>
+    <t>Breech-loading</t>
   </si>
   <si>
     <t>+1.0 art fire, +1.0 cav fire, new arty</t>
@@ -538,7 +580,7 @@
     <t>Mesurements and Weights</t>
   </si>
   <si>
-    <t>Joint Stock Companies</t>
+    <t>Cargo Ships</t>
   </si>
   <si>
     <t>Covered Way</t>
@@ -559,7 +601,7 @@
     <t>+2.0 cav fire, +4.0 cav shock, new cav</t>
   </si>
   <si>
-    <t>Four Field Rotation</t>
+    <t>Railroads</t>
   </si>
   <si>
     <t>Battleships</t>
@@ -577,19 +619,25 @@
     <t>Silver Standard</t>
   </si>
   <si>
-    <t>Rifle</t>
-  </si>
-  <si>
-    <t>+0.5 inf fire, +50% supply limit, +25% flanking range</t>
-  </si>
-  <si>
-    <t>High Caliber guns</t>
-  </si>
-  <si>
-    <t>Field Howitzers</t>
+    <t>Lile Rifle</t>
+  </si>
+  <si>
+    <t>+0.5 inf fire, +50% supply limit, +25% flanking range, new inf</t>
+  </si>
+  <si>
+    <t>Mechanized Mining</t>
+  </si>
+  <si>
+    <t>Market Regulation</t>
+  </si>
+  <si>
+    <t>Rifled Artillery</t>
   </si>
   <si>
     <t>+2.0 art fire, +1.0 cav fire</t>
+  </si>
+  <si>
+    <t>Tractors</t>
   </si>
   <si>
     <t>Superfiring Armaments</t>
@@ -932,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1311,14 +1359,17 @@
         <f t="shared" si="0"/>
         <v>1456</v>
       </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1327,16 +1378,16 @@
         <v>1469</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1345,13 +1396,16 @@
         <v>1482</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1360,40 +1414,40 @@
         <v>1495</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
         <v>1508</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1402,16 +1456,16 @@
         <v>1521</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1420,16 +1474,16 @@
         <v>1534</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1438,37 +1492,40 @@
         <v>1547</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1476,14 +1533,17 @@
         <f t="shared" si="0"/>
         <v>1573</v>
       </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1492,13 +1552,16 @@
         <v>1586</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1507,37 +1570,40 @@
         <v>1599</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
         <v>1612</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1546,16 +1612,16 @@
         <v>1625</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1563,29 +1629,38 @@
         <f t="shared" si="0"/>
         <v>1638</v>
       </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
         <v>1651</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1594,16 +1669,19 @@
         <v>1664</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
+      <c r="E35" t="s">
+        <v>153</v>
+      </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1612,13 +1690,16 @@
         <v>1677</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>157</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1627,34 +1708,40 @@
         <v>1690</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
       </c>
       <c r="G37" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
         <v>1703</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
       <c r="G38" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1663,13 +1750,16 @@
         <v>1716</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>169</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1678,16 +1768,16 @@
         <v>1729</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1696,40 +1786,40 @@
         <v>1742</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
         <v>1755</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H42" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1738,16 +1828,16 @@
         <v>1768</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1756,16 +1846,16 @@
         <v>1781</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="G44" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H44" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1774,19 +1864,19 @@
         <v>1794</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="H45" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1794,14 +1884,17 @@
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H46" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1809,14 +1902,17 @@
         <f t="shared" si="0"/>
         <v>1820</v>
       </c>
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="H47" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24411"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F862293-CC4C-4B39-B29C-80198A9CEB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D7BEA0-D138-458D-BD94-BE5A9239AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,24 +442,24 @@
     <t>Vecroths</t>
   </si>
   <si>
+    <t>Star Bastions</t>
+  </si>
+  <si>
+    <t>Bastions Building (Level 4 fort)</t>
+  </si>
+  <si>
+    <t>Vitaite engineering</t>
+  </si>
+  <si>
+    <t>Ironclads</t>
+  </si>
+  <si>
     <t>Plug Bayonets</t>
   </si>
   <si>
     <t>+0.4 inf shock</t>
   </si>
   <si>
-    <t>Vitaite engineering</t>
-  </si>
-  <si>
-    <t>Ironclads</t>
-  </si>
-  <si>
-    <t>Star Bastions</t>
-  </si>
-  <si>
-    <t>Bastions Building (Level 4 fort)</t>
-  </si>
-  <si>
     <t>University</t>
   </si>
   <si>
@@ -502,7 +502,7 @@
     <t>New Thought</t>
   </si>
   <si>
-    <t>Merchant Vessels</t>
+    <t>Clippers</t>
   </si>
   <si>
     <t>Steam air ships</t>
@@ -520,7 +520,7 @@
     <t>Ankon Armor</t>
   </si>
   <si>
-    <t>+0.5 tactics, +0.5 Morale, +0.2 inf shock, -20% fire damage recieved</t>
+    <t>+0.5 tactics, +0.5 Morale, +0.2 inf shock, -20% fire damage recieved, Star Fort (Level 6 fort)</t>
   </si>
   <si>
     <t>industrialization</t>
@@ -580,7 +580,7 @@
     <t>Mesurements and Weights</t>
   </si>
   <si>
-    <t>Cargo Ships</t>
+    <t>Transport Ships</t>
   </si>
   <si>
     <t>Covered Way</t>
@@ -625,7 +625,7 @@
     <t>+0.5 inf fire, +50% supply limit, +25% flanking range, new inf</t>
   </si>
   <si>
-    <t>Mechanized Mining</t>
+    <t>Chemistry</t>
   </si>
   <si>
     <t>Market Regulation</t>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24411"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D7BEA0-D138-458D-BD94-BE5A9239AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E8694C3-CAF1-4B0F-A3B8-A8D1B8F5F5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
     <t>Line Infantry</t>
   </si>
   <si>
-    <t>+0.25 tactics, +0.5 Morale, +6 combat width</t>
+    <t>+0.25 tactics, +1.0 Morale, +6 combat width</t>
   </si>
   <si>
     <t>State and Government</t>
@@ -634,7 +634,7 @@
     <t>Rifled Artillery</t>
   </si>
   <si>
-    <t>+2.0 art fire, +1.0 cav fire</t>
+    <t>+2.0 art fire, +1.0 cav fire, new arty</t>
   </si>
   <si>
     <t>Tractors</t>
@@ -646,7 +646,7 @@
     <t>Gatling guns</t>
   </si>
   <si>
-    <t>+0.25 tactics, +0.5 inf fire, +1.0 cav fire, +1.0 cav shock</t>
+    <t>+0.25 tactics, +0.5 inf fire, +0.5 cav fire, +1.0 cav shock</t>
   </si>
 </sst>
 </file>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E8694C3-CAF1-4B0F-A3B8-A8D1B8F5F5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="225">
   <si>
     <t>notes</t>
   </si>
@@ -647,13 +647,70 @@
   </si>
   <si>
     <t>+0.25 tactics, +0.5 inf fire, +0.5 cav fire, +1.0 cav shock</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>Infantry Pips</t>
+  </si>
+  <si>
+    <t>Artillery Pips</t>
+  </si>
+  <si>
+    <t>Elves (Sea)</t>
+  </si>
+  <si>
+    <t>Elves (Sun)</t>
+  </si>
+  <si>
+    <t>Elves (Moon)</t>
+  </si>
+  <si>
+    <t>Elves (lake)</t>
+  </si>
+  <si>
+    <t>Humans (Civ)</t>
+  </si>
+  <si>
+    <t>Ulguir (eastern Ugluk)</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Free Kolbold</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>Dunirr</t>
+  </si>
+  <si>
+    <t>Humans</t>
+  </si>
+  <si>
+    <t>Spiders</t>
+  </si>
+  <si>
+    <t>Fauns</t>
+  </si>
+  <si>
+    <t>Ugluk</t>
+  </si>
+  <si>
+    <t>Scuria</t>
+  </si>
+  <si>
+    <t>Generic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,8 +718,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,8 +759,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -690,16 +783,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,6 +833,4470 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elves (lake)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spiders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fauns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$3:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ugluk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$3:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scuria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$3:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="73168768"/>
+        <c:axId val="73170304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73168768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73170304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73170304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="34"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng"/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73168768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1988407699037624E-2"/>
+          <c:y val="4.6770924467774859E-2"/>
+          <c:w val="0.81730034396177498"/>
+          <c:h val="0.90516494068635411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$91:$B$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elves (lake)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$91:$C$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elves (Sea)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$91:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elves (Sun)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$91:$E$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elves (Moon)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$91:$F$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$91:$G$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humans (Civ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$91:$H$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spiders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$91:$I$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fauns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$91:$J$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ugluk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$91:$K$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ulguir (eastern Ugluk)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$91:$L$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scuria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$91:$M$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="97153408"/>
+        <c:axId val="97155328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="97153408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97155328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97155328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="34"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97153408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,21 +5554,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
@@ -995,7 +5579,7 @@
     <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +5605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1235</v>
       </c>
@@ -1038,7 +5622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +5642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +5664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1274</v>
       </c>
@@ -1097,7 +5681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1287</v>
       </c>
@@ -1117,7 +5701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1137,7 +5721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1313</v>
       </c>
@@ -1157,7 +5741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1326</v>
       </c>
@@ -1174,7 +5758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B9+13)</f>
         <v>1339</v>
@@ -1195,7 +5779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1216,7 +5800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>1365</v>
@@ -1234,7 +5818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>1378</v>
@@ -1252,7 +5836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>1391</v>
@@ -1273,7 +5857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1294,7 +5878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>1417</v>
@@ -1312,7 +5896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>1430</v>
@@ -1333,7 +5917,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>1443</v>
@@ -1351,7 +5935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1372,7 +5956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>1469</v>
@@ -1390,7 +5974,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>1482</v>
@@ -1408,7 +5992,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>1495</v>
@@ -1429,7 +6013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1450,7 +6034,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>1521</v>
@@ -1468,7 +6052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>1534</v>
@@ -1486,7 +6070,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>1547</v>
@@ -1507,7 +6091,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -1528,7 +6112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>1573</v>
@@ -1546,7 +6130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>1586</v>
@@ -1564,7 +6148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>1599</v>
@@ -1582,7 +6166,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -1606,7 +6190,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>1625</v>
@@ -1624,7 +6208,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>1638</v>
@@ -1642,7 +6226,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -1663,7 +6247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>1664</v>
@@ -1684,7 +6268,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>1677</v>
@@ -1702,7 +6286,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>1690</v>
@@ -1720,7 +6304,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>164</v>
       </c>
@@ -1744,7 +6328,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>1716</v>
@@ -1762,7 +6346,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>1729</v>
@@ -1780,7 +6364,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>1742</v>
@@ -1801,7 +6385,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -1822,7 +6406,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>1768</v>
@@ -1840,7 +6424,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>1781</v>
@@ -1858,7 +6442,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>1794</v>
@@ -1879,7 +6463,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>1807</v>
@@ -1897,7 +6481,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>1820</v>
@@ -1919,4 +6503,1779 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16" s="4">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>13</v>
+      </c>
+      <c r="M19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="I21" s="4">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="M23" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>16</v>
+      </c>
+      <c r="M27" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>16</v>
+      </c>
+      <c r="M28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>16</v>
+      </c>
+      <c r="M30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4">
+        <v>22</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31" s="4">
+        <v>21</v>
+      </c>
+      <c r="M31" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>22</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>21</v>
+      </c>
+      <c r="M34" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="G35">
+        <v>22</v>
+      </c>
+      <c r="I35">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>22</v>
+      </c>
+      <c r="I36">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>26</v>
+      </c>
+      <c r="G37" s="4">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="G38">
+        <v>26</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>25</v>
+      </c>
+      <c r="M38" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>26</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>25</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>26</v>
+      </c>
+      <c r="I40">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4">
+        <v>30</v>
+      </c>
+      <c r="G41" s="4">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="K41" s="4">
+        <v>29</v>
+      </c>
+      <c r="M41" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+      <c r="K42">
+        <v>29</v>
+      </c>
+      <c r="M42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>29</v>
+      </c>
+      <c r="M43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4">
+        <v>34</v>
+      </c>
+      <c r="G45" s="4">
+        <v>34</v>
+      </c>
+      <c r="I45">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45" s="4">
+        <v>34</v>
+      </c>
+      <c r="M45" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G90" t="s">
+        <v>219</v>
+      </c>
+      <c r="H90" t="s">
+        <v>213</v>
+      </c>
+      <c r="I90" t="s">
+        <v>220</v>
+      </c>
+      <c r="J90" t="s">
+        <v>221</v>
+      </c>
+      <c r="K90" t="s">
+        <v>222</v>
+      </c>
+      <c r="L90" t="s">
+        <v>214</v>
+      </c>
+      <c r="M90" t="s">
+        <v>223</v>
+      </c>
+      <c r="N90" t="s">
+        <v>215</v>
+      </c>
+      <c r="O90" t="s">
+        <v>216</v>
+      </c>
+      <c r="P90" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>13</v>
+      </c>
+      <c r="B99" s="4">
+        <v>3</v>
+      </c>
+      <c r="M99" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>17</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>19</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>20</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>21</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>23</v>
+      </c>
+      <c r="B109" s="4">
+        <v>9</v>
+      </c>
+      <c r="M109" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>24</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>25</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>26</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>27</v>
+      </c>
+      <c r="B113">
+        <v>9</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>28</v>
+      </c>
+      <c r="B114" s="4">
+        <v>12</v>
+      </c>
+      <c r="M114" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>29</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="M115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>30</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="M116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>31</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="M117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>32</v>
+      </c>
+      <c r="B118" s="4">
+        <v>17</v>
+      </c>
+      <c r="M118" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>33</v>
+      </c>
+      <c r="B119">
+        <v>17</v>
+      </c>
+      <c r="M119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>34</v>
+      </c>
+      <c r="B120">
+        <v>17</v>
+      </c>
+      <c r="M120">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>35</v>
+      </c>
+      <c r="B121">
+        <v>17</v>
+      </c>
+      <c r="M121">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>36</v>
+      </c>
+      <c r="B122" s="4">
+        <v>24</v>
+      </c>
+      <c r="M122" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>37</v>
+      </c>
+      <c r="B123">
+        <v>24</v>
+      </c>
+      <c r="M123">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>38</v>
+      </c>
+      <c r="B124" s="4">
+        <v>30</v>
+      </c>
+      <c r="M124" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>39</v>
+      </c>
+      <c r="B125">
+        <v>30</v>
+      </c>
+      <c r="M125">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>40</v>
+      </c>
+      <c r="B126">
+        <v>30</v>
+      </c>
+      <c r="M126">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>41</v>
+      </c>
+      <c r="B127">
+        <v>30</v>
+      </c>
+      <c r="M127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>42</v>
+      </c>
+      <c r="B128">
+        <v>30</v>
+      </c>
+      <c r="M128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>43</v>
+      </c>
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="M129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>44</v>
+      </c>
+      <c r="B130">
+        <v>30</v>
+      </c>
+      <c r="M130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>45</v>
+      </c>
+      <c r="B131" s="4">
+        <v>34</v>
+      </c>
+      <c r="M131" s="4">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A89:AB89"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="224">
   <si>
     <t>notes</t>
   </si>
@@ -656,9 +656,6 @@
   </si>
   <si>
     <t>Artillery Pips</t>
-  </si>
-  <si>
-    <t>Elves (Sea)</t>
   </si>
   <si>
     <t>Elves (Sun)</t>
@@ -710,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,20 +724,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,16 +772,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -798,28 +809,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -856,7 +885,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -869,6 +898,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$45</c:f>
@@ -1148,7 +1180,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1161,6 +1193,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$45</c:f>
@@ -1440,19 +1484,944 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="5"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elves (Sun)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elves (Moon)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Humans</c:v>
+                  <c:v>Humans (Civ)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$45</c:f>
@@ -1597,27 +2566,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1732,19 +2680,335 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spiders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spiders</c:v>
+                  <c:v>Fauns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$45</c:f>
@@ -1890,40 +3154,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9</c:v>
@@ -1932,22 +3196,22 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>14</c:v>
@@ -1962,61 +3226,61 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,19 +3288,31 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:idx val="10"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fauns</c:v>
+                  <c:v>Ugluk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$45</c:f>
@@ -2197,118 +3473,118 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,19 +3592,31 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:idx val="11"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ugluk</c:v>
+                  <c:v>Ulguir (eastern Ugluk)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$45</c:f>
@@ -2473,154 +3761,339 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>34</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
+          <c:idx val="12"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scuria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$3:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scuria</c:v>
+                  <c:v>Drake</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$45</c:f>
@@ -2766,40 +4239,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>8</c:v>
@@ -2811,7 +4284,611 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free Kolbold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$3:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$O$3:$O$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10</c:v>
@@ -2820,10 +4897,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>12</c:v>
@@ -2835,7 +4912,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>14</c:v>
@@ -2850,7 +4927,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>18</c:v>
@@ -2859,6 +4936,308 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dunirr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$P$3:$P$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="32">
@@ -2868,31 +5247,31 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2909,56 +5288,85 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73168768"/>
-        <c:axId val="73170304"/>
+        <c:axId val="106838272"/>
+        <c:axId val="106079744"/>
       </c:lineChart>
+      <c:valAx>
+        <c:axId val="106079744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106838272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:catAx>
-        <c:axId val="73168768"/>
+        <c:axId val="106838272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Unit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> Pips</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73170304"/>
+        <c:crossAx val="106079744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
-      <c:valAx>
-        <c:axId val="73170304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="34"/>
-          <c:min val="2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln cmpd="sng"/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73168768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -3446,7 +5854,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -3454,7 +5862,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elves (Sea)</c:v>
+                  <c:v>Elves (Sun)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3606,7 +6014,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -3614,7 +6022,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elves (Sun)</c:v>
+                  <c:v>Elves (Moon)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3766,7 +6174,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -3774,7 +6182,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elves (Moon)</c:v>
+                  <c:v>Humans</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3926,7 +6334,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="7"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -3934,7 +6342,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Humans</c:v>
+                  <c:v>Humans (Civ)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4086,7 +6494,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="8"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
@@ -4094,7 +6502,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Humans (Civ)</c:v>
+                  <c:v>Spiders</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4246,7 +6654,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="9"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
@@ -4254,7 +6662,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spiders</c:v>
+                  <c:v>Fauns</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4406,7 +6814,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
+          <c:idx val="10"/>
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
@@ -4414,7 +6822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fauns</c:v>
+                  <c:v>Ugluk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4566,7 +6974,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
+          <c:idx val="11"/>
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
@@ -4574,7 +6982,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ugluk</c:v>
+                  <c:v>Ulguir (eastern Ugluk)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4726,7 +7134,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
+          <c:idx val="12"/>
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
@@ -4734,7 +7142,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ulguir (eastern Ugluk)</c:v>
+                  <c:v>Scuria</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4877,166 +7285,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$L$91:$L$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$M$90</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scuria</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$91:$A$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$M$91:$M$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -5178,11 +7426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97153408"/>
-        <c:axId val="97155328"/>
+        <c:axId val="72906240"/>
+        <c:axId val="72907776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97153408"/>
+        <c:axId val="72906240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5192,7 +7440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97155328"/>
+        <c:crossAx val="72907776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5200,7 +7448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97155328"/>
+        <c:axId val="72907776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -5212,7 +7460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97153408"/>
+        <c:crossAx val="72906240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5239,15 +7487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5274,7 +7522,7 @@
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
@@ -5554,7 +7802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6507,31 +8755,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB131"/>
+  <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>207</v>
       </c>
@@ -6561,32 +8807,31 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>219</v>
-      </c>
-      <c r="H2" t="s">
-        <v>213</v>
       </c>
       <c r="I2" t="s">
         <v>220</v>
@@ -6595,13 +8840,13 @@
         <v>221</v>
       </c>
       <c r="K2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" t="s">
         <v>222</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>214</v>
-      </c>
-      <c r="M2" t="s">
-        <v>223</v>
       </c>
       <c r="N2" t="s">
         <v>215</v>
@@ -6612,38 +8857,54 @@
       <c r="P2" t="s">
         <v>217</v>
       </c>
-      <c r="Q2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="4">
-        <v>9</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="H3" s="3">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="K3" s="7"/>
+      <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="M3" s="7">
+        <v>4</v>
+      </c>
+      <c r="N3" s="7">
+        <v>4</v>
+      </c>
+      <c r="O3" s="7">
+        <v>6</v>
+      </c>
+      <c r="P3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -6652,24 +8913,42 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3">
         <v>6</v>
       </c>
-      <c r="K4" s="4">
+      <c r="J4" s="3">
         <v>6</v>
       </c>
-      <c r="M4" s="4">
+      <c r="L4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -6678,23 +8957,41 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
         <v>4</v>
       </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
       <c r="I5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
         <v>6</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6704,50 +9001,86 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
       <c r="I6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="D7" s="7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
       <c r="I7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5</v>
+      </c>
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="M7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -6756,23 +9089,41 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
       <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8" s="4">
+      <c r="J8" s="3">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M8" s="7">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6782,24 +9133,42 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
       <c r="I9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -6808,24 +9177,45 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="G10" s="3">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
         <v>7</v>
       </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="G10" s="7">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3">
         <v>8</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <v>7</v>
       </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
       <c r="M10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" s="7">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6834,49 +9224,91 @@
       <c r="C11">
         <v>6</v>
       </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
       <c r="G11">
         <v>7</v>
       </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
       <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>7</v>
+      </c>
+      <c r="O11">
         <v>8</v>
       </c>
-      <c r="K11" s="4">
-        <v>9</v>
-      </c>
-      <c r="M11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="P11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12">
         <v>7</v>
       </c>
       <c r="G12">
         <v>7</v>
       </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
       <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
         <v>9</v>
       </c>
-      <c r="J12">
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
         <v>8</v>
       </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P12" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6886,23 +9318,44 @@
       <c r="C13">
         <v>7</v>
       </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
       <c r="G13">
         <v>7</v>
       </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
       <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
         <v>9</v>
       </c>
-      <c r="J13">
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
         <v>8</v>
       </c>
-      <c r="K13">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6912,24 +9365,45 @@
       <c r="C14">
         <v>7</v>
       </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
       <c r="G14">
         <v>7</v>
       </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
       <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
         <v>9</v>
       </c>
-      <c r="J14">
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14">
         <v>8</v>
       </c>
-      <c r="K14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="P14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -6938,24 +9412,45 @@
       <c r="C15">
         <v>7</v>
       </c>
-      <c r="G15" s="4">
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
         <v>9</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>9</v>
       </c>
-      <c r="K15">
+      <c r="L15" s="3">
+        <v>8</v>
+      </c>
+      <c r="M15" s="7">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15" s="7">
         <v>9</v>
       </c>
-      <c r="M15" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="16" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -6964,49 +9459,91 @@
       <c r="C16">
         <v>7</v>
       </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
       <c r="G16">
         <v>10</v>
       </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
       <c r="I16">
         <v>9</v>
       </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
-      <c r="K16" s="4">
-        <v>13</v>
+      <c r="J16" s="3">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
       </c>
       <c r="M16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="N16" s="7">
+        <v>8</v>
+      </c>
+      <c r="O16" s="7">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="I17" s="4">
+      <c r="H17" s="3">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
         <v>11</v>
       </c>
-      <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>13</v>
+      <c r="L17">
+        <v>8</v>
       </c>
       <c r="M17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7016,24 +9553,45 @@
       <c r="C18">
         <v>8</v>
       </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
       <c r="G18">
         <v>10</v>
       </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
       <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
         <v>11</v>
       </c>
-      <c r="J18">
-        <v>9</v>
-      </c>
-      <c r="K18">
-        <v>13</v>
-      </c>
-      <c r="M18">
+      <c r="L18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="M18" s="7">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -7042,50 +9600,92 @@
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="G19" s="4">
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
         <v>13</v>
       </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
       <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
         <v>11</v>
       </c>
-      <c r="J19">
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <v>13</v>
-      </c>
-      <c r="M19" s="4">
+      <c r="L19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19" s="7">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
+        <v>12</v>
+      </c>
+      <c r="E20" s="7">
+        <v>12</v>
+      </c>
+      <c r="F20">
         <v>12</v>
       </c>
       <c r="G20">
         <v>13</v>
       </c>
-      <c r="I20">
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+      <c r="J20">
         <v>11</v>
       </c>
-      <c r="J20">
-        <v>9</v>
-      </c>
-      <c r="K20">
-        <v>13</v>
+      <c r="L20">
+        <v>10</v>
       </c>
       <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="P20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -7094,24 +9694,45 @@
       <c r="C21">
         <v>12</v>
       </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
       <c r="G21">
         <v>13</v>
       </c>
-      <c r="I21" s="4">
+      <c r="H21" s="3">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+      <c r="O21" s="7">
+        <v>12</v>
+      </c>
+      <c r="P21" s="7">
         <v>14</v>
       </c>
-      <c r="J21">
-        <v>9</v>
-      </c>
-      <c r="K21" s="4">
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
+    </row>
+    <row r="22" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -7120,49 +9741,91 @@
       <c r="C22">
         <v>12</v>
       </c>
-      <c r="G22" s="4">
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3">
         <v>16</v>
       </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
       <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" s="7">
+        <v>13</v>
+      </c>
+      <c r="N22" s="7">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>12</v>
+      </c>
+      <c r="P22">
         <v>14</v>
       </c>
-      <c r="J22">
-        <v>9</v>
-      </c>
-      <c r="K22">
-        <v>16</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
+    </row>
+    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>16</v>
+      </c>
+      <c r="D23" s="7">
+        <v>16</v>
+      </c>
+      <c r="E23" s="7">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
       </c>
       <c r="G23">
         <v>16</v>
       </c>
-      <c r="I23">
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23" s="3">
         <v>14</v>
       </c>
       <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23">
         <v>16</v>
       </c>
-      <c r="M23" s="4">
+      <c r="L23" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>13</v>
+      </c>
+      <c r="N23">
+        <v>13</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7172,24 +9835,45 @@
       <c r="C24">
         <v>16</v>
       </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
       <c r="G24">
         <v>16</v>
       </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
       <c r="I24">
         <v>14</v>
       </c>
       <c r="J24">
-        <v>9</v>
-      </c>
-      <c r="K24">
         <v>16</v>
       </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
       <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="P24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -7198,23 +9882,44 @@
       <c r="C25">
         <v>16</v>
       </c>
-      <c r="G25" s="4">
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3">
         <v>17</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
       </c>
       <c r="I25">
         <v>14</v>
       </c>
       <c r="J25">
-        <v>9</v>
-      </c>
-      <c r="K25">
         <v>16</v>
       </c>
+      <c r="L25">
+        <v>12</v>
+      </c>
       <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>13</v>
+      </c>
+      <c r="O25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P25" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7224,49 +9929,91 @@
       <c r="C26">
         <v>16</v>
       </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
       <c r="G26">
         <v>17</v>
       </c>
+      <c r="H26" s="3">
+        <v>17</v>
+      </c>
       <c r="I26">
         <v>14</v>
       </c>
       <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="K26">
         <v>16</v>
       </c>
+      <c r="L26">
+        <v>12</v>
+      </c>
       <c r="M26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+      <c r="O26" s="7">
+        <v>14</v>
+      </c>
+      <c r="P26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>19</v>
+      </c>
+      <c r="D27" s="7">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
       </c>
       <c r="G27">
         <v>17</v>
       </c>
-      <c r="I27">
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+      <c r="L27" s="3">
         <v>14</v>
       </c>
-      <c r="J27">
-        <v>9</v>
-      </c>
-      <c r="K27">
-        <v>16</v>
-      </c>
-      <c r="M27" s="4">
+      <c r="M27" s="7">
+        <v>17</v>
+      </c>
+      <c r="N27" s="7">
+        <v>18</v>
+      </c>
+      <c r="O27">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P27" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7276,23 +10023,44 @@
       <c r="C28">
         <v>19</v>
       </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
       <c r="G28">
         <v>17</v>
       </c>
+      <c r="H28">
+        <v>17</v>
+      </c>
       <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+      <c r="L28">
         <v>14</v>
       </c>
-      <c r="J28">
-        <v>9</v>
-      </c>
-      <c r="K28">
-        <v>16</v>
-      </c>
       <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+      <c r="O28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7302,24 +10070,45 @@
       <c r="C29">
         <v>19</v>
       </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
       <c r="G29">
         <v>17</v>
       </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
       <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+      <c r="L29">
         <v>14</v>
       </c>
-      <c r="J29">
-        <v>9</v>
-      </c>
-      <c r="K29">
-        <v>16</v>
-      </c>
       <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>18</v>
+      </c>
+      <c r="O29">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="P29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30">
@@ -7328,50 +10117,92 @@
       <c r="C30">
         <v>19</v>
       </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
       <c r="G30">
         <v>17</v>
       </c>
+      <c r="H30">
+        <v>17</v>
+      </c>
       <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+      <c r="L30">
         <v>14</v>
       </c>
-      <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30">
-        <v>16</v>
-      </c>
       <c r="M30">
+        <v>17</v>
+      </c>
+      <c r="N30">
+        <v>18</v>
+      </c>
+      <c r="O30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="P30" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>22</v>
       </c>
-      <c r="G31" s="4">
+      <c r="D31" s="7">
+        <v>21</v>
+      </c>
+      <c r="E31" s="7">
         <v>22</v>
       </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3">
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <v>17</v>
+      </c>
       <c r="I31">
+        <v>17</v>
+      </c>
+      <c r="J31" s="3">
+        <v>21</v>
+      </c>
+      <c r="L31" s="3">
+        <v>18</v>
+      </c>
+      <c r="M31" s="7">
+        <v>20</v>
+      </c>
+      <c r="N31" s="7">
+        <v>21</v>
+      </c>
+      <c r="O31">
         <v>14</v>
       </c>
-      <c r="J31">
-        <v>9</v>
-      </c>
-      <c r="K31" s="4">
-        <v>21</v>
-      </c>
-      <c r="M31" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="P31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32">
@@ -7380,23 +10211,44 @@
       <c r="C32">
         <v>22</v>
       </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>14</v>
+      </c>
       <c r="G32">
         <v>22</v>
       </c>
-      <c r="I32">
-        <v>14</v>
+      <c r="H32" s="3">
+        <v>19</v>
+      </c>
+      <c r="I32" s="3">
+        <v>20</v>
       </c>
       <c r="J32">
-        <v>9</v>
-      </c>
-      <c r="K32">
         <v>21</v>
       </c>
+      <c r="L32">
+        <v>18</v>
+      </c>
       <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>21</v>
+      </c>
+      <c r="O32" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7406,24 +10258,45 @@
       <c r="C33">
         <v>22</v>
       </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
       <c r="G33">
         <v>22</v>
       </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
       <c r="I33">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J33">
-        <v>9</v>
-      </c>
-      <c r="K33">
         <v>21</v>
       </c>
+      <c r="L33">
+        <v>18</v>
+      </c>
       <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>21</v>
+      </c>
+      <c r="O33">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="P33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34">
@@ -7432,23 +10305,44 @@
       <c r="C34">
         <v>22</v>
       </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>14</v>
+      </c>
       <c r="G34">
         <v>22</v>
       </c>
+      <c r="H34">
+        <v>19</v>
+      </c>
       <c r="I34">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J34">
-        <v>9</v>
-      </c>
-      <c r="K34">
         <v>21</v>
       </c>
-      <c r="M34" s="4">
+      <c r="L34" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>21</v>
+      </c>
+      <c r="O34">
+        <v>18</v>
+      </c>
+      <c r="P34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7458,23 +10352,44 @@
       <c r="C35">
         <v>22</v>
       </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>14</v>
+      </c>
       <c r="G35">
         <v>22</v>
       </c>
+      <c r="H35">
+        <v>19</v>
+      </c>
       <c r="I35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J35">
-        <v>9</v>
-      </c>
-      <c r="K35">
         <v>21</v>
       </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
       <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>18</v>
+      </c>
+      <c r="P35">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7484,50 +10399,92 @@
       <c r="C36">
         <v>22</v>
       </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
       <c r="G36">
         <v>22</v>
       </c>
+      <c r="H36">
+        <v>19</v>
+      </c>
       <c r="I36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J36">
-        <v>9</v>
-      </c>
-      <c r="K36">
         <v>21</v>
       </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
       <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>21</v>
+      </c>
+      <c r="O36">
+        <v>18</v>
+      </c>
+      <c r="P36">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>26</v>
       </c>
-      <c r="G37" s="4">
+      <c r="D37" s="7">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7">
         <v>26</v>
       </c>
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37" s="3">
+        <v>26</v>
+      </c>
+      <c r="H37" s="3">
+        <v>20</v>
+      </c>
       <c r="I37">
-        <v>14</v>
-      </c>
-      <c r="J37">
-        <v>9</v>
-      </c>
-      <c r="K37" s="4">
+        <v>20</v>
+      </c>
+      <c r="J37" s="3">
         <v>25</v>
       </c>
-      <c r="M37">
+      <c r="L37">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="M37" s="7">
+        <v>25</v>
+      </c>
+      <c r="N37">
+        <v>21</v>
+      </c>
+      <c r="O37">
+        <v>18</v>
+      </c>
+      <c r="P37" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38">
@@ -7536,24 +10493,45 @@
       <c r="C38">
         <v>26</v>
       </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
       <c r="G38">
         <v>26</v>
       </c>
-      <c r="I38">
-        <v>14</v>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3">
+        <v>24</v>
       </c>
       <c r="J38">
-        <v>9</v>
-      </c>
-      <c r="K38">
         <v>25</v>
       </c>
-      <c r="M38" s="4">
+      <c r="L38" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="N38" s="7">
+        <v>26</v>
+      </c>
+      <c r="O38" s="7">
+        <v>22</v>
+      </c>
+      <c r="P38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39">
@@ -7562,23 +10540,44 @@
       <c r="C39">
         <v>26</v>
       </c>
+      <c r="D39">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>26</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
       <c r="G39">
         <v>26</v>
       </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
       <c r="I39">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J39">
-        <v>9</v>
-      </c>
-      <c r="K39">
+        <v>25</v>
+      </c>
+      <c r="L39">
         <v>25</v>
       </c>
       <c r="M39">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>26</v>
+      </c>
+      <c r="O39">
+        <v>22</v>
+      </c>
+      <c r="P39" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7588,49 +10587,91 @@
       <c r="C40">
         <v>26</v>
       </c>
+      <c r="D40">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>14</v>
+      </c>
       <c r="G40">
         <v>26</v>
       </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
       <c r="I40">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J40">
-        <v>9</v>
-      </c>
-      <c r="K40">
+        <v>25</v>
+      </c>
+      <c r="L40">
         <v>25</v>
       </c>
       <c r="M40">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="N40">
+        <v>26</v>
+      </c>
+      <c r="O40">
+        <v>22</v>
+      </c>
+      <c r="P40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>30</v>
       </c>
-      <c r="G41" s="4">
+      <c r="D41" s="7">
+        <v>31</v>
+      </c>
+      <c r="E41" s="7">
         <v>30</v>
       </c>
-      <c r="I41">
+      <c r="F41">
         <v>14</v>
       </c>
-      <c r="J41">
-        <v>9</v>
-      </c>
-      <c r="K41" s="4">
+      <c r="G41" s="3">
+        <v>30</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3">
+        <v>30</v>
+      </c>
+      <c r="J41" s="3">
         <v>29</v>
       </c>
-      <c r="M41" s="4">
+      <c r="L41" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="7">
+        <v>29</v>
+      </c>
+      <c r="N41" s="7">
+        <v>30</v>
+      </c>
+      <c r="O41" s="7">
+        <v>29</v>
+      </c>
+      <c r="P41" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7640,23 +10681,44 @@
       <c r="C42">
         <v>30</v>
       </c>
+      <c r="D42">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
       <c r="G42">
         <v>30</v>
       </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
       <c r="I42">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J42">
-        <v>9</v>
-      </c>
-      <c r="K42">
+        <v>29</v>
+      </c>
+      <c r="L42">
         <v>29</v>
       </c>
       <c r="M42">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>30</v>
+      </c>
+      <c r="O42">
+        <v>30</v>
+      </c>
+      <c r="P42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7666,23 +10728,44 @@
       <c r="C43">
         <v>30</v>
       </c>
+      <c r="D43">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>14</v>
+      </c>
       <c r="G43">
         <v>30</v>
       </c>
+      <c r="H43" s="3">
+        <v>30</v>
+      </c>
       <c r="I43">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J43">
-        <v>9</v>
-      </c>
-      <c r="K43">
+        <v>29</v>
+      </c>
+      <c r="L43">
         <v>29</v>
       </c>
       <c r="M43">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>30</v>
+      </c>
+      <c r="O43">
+        <v>30</v>
+      </c>
+      <c r="P43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7692,49 +10775,100 @@
       <c r="C44">
         <v>30</v>
       </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
       <c r="G44">
         <v>30</v>
       </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
       <c r="I44">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J44">
-        <v>9</v>
-      </c>
-      <c r="K44">
+        <v>29</v>
+      </c>
+      <c r="L44">
         <v>29</v>
       </c>
       <c r="M44">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="N44">
+        <v>30</v>
+      </c>
+      <c r="O44">
+        <v>30</v>
+      </c>
+      <c r="P44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>34</v>
       </c>
-      <c r="G45" s="4">
+      <c r="D45" s="7">
+        <v>35</v>
+      </c>
+      <c r="E45" s="7">
         <v>34</v>
       </c>
-      <c r="I45">
+      <c r="F45">
         <v>14</v>
       </c>
-      <c r="J45">
-        <v>9</v>
-      </c>
-      <c r="K45" s="4">
+      <c r="G45" s="3">
         <v>34</v>
       </c>
-      <c r="M45" s="4">
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45" s="3">
+        <v>34</v>
+      </c>
+      <c r="J45" s="3">
+        <v>34</v>
+      </c>
+      <c r="L45" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M45" s="7">
+        <v>33</v>
+      </c>
+      <c r="N45" s="7">
+        <v>34</v>
+      </c>
+      <c r="O45" s="7">
+        <v>33</v>
+      </c>
+      <c r="P45" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="D46" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>208</v>
       </c>
@@ -7764,32 +10898,31 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>206</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" t="s">
+        <v>218</v>
+      </c>
+      <c r="G90" t="s">
         <v>212</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>219</v>
-      </c>
-      <c r="H90" t="s">
-        <v>213</v>
       </c>
       <c r="I90" t="s">
         <v>220</v>
@@ -7798,13 +10931,13 @@
         <v>221</v>
       </c>
       <c r="K90" t="s">
+        <v>213</v>
+      </c>
+      <c r="L90" t="s">
         <v>222</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>214</v>
-      </c>
-      <c r="M90" t="s">
-        <v>223</v>
       </c>
       <c r="N90" t="s">
         <v>215</v>
@@ -7815,465 +10948,462 @@
       <c r="P90" t="s">
         <v>217</v>
       </c>
-      <c r="Q90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>2</v>
       </c>
-      <c r="M91" s="4">
+      <c r="L91" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
-      <c r="M92">
+      <c r="L92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
-      <c r="M93">
+      <c r="L93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>8</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="M94">
+      <c r="L94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
-      <c r="M95">
+      <c r="L95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="M96">
+      <c r="L96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>11</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
-      <c r="M97">
+      <c r="L97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>12</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
-      <c r="M98">
+      <c r="L98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>13</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>3</v>
       </c>
-      <c r="M99" s="4">
+      <c r="L99" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
-      <c r="M100">
+      <c r="L100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>15</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
-      <c r="M101">
+      <c r="L101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
-      <c r="M102">
+      <c r="L102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>17</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
-      <c r="M103">
+      <c r="L103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
-      <c r="M104">
+      <c r="L104">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>19</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
-      <c r="M105">
+      <c r="L105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
-      <c r="M106">
+      <c r="L106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
-      <c r="M107">
+      <c r="L107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>22</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
-      <c r="M108">
+      <c r="L108">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>23</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>9</v>
       </c>
-      <c r="M109" s="4">
+      <c r="L109" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>24</v>
       </c>
       <c r="B110">
         <v>9</v>
       </c>
-      <c r="M110">
+      <c r="L110">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>25</v>
       </c>
       <c r="B111">
         <v>9</v>
       </c>
-      <c r="M111">
+      <c r="L111">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>26</v>
       </c>
       <c r="B112">
         <v>9</v>
       </c>
-      <c r="M112">
+      <c r="L112">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>27</v>
       </c>
       <c r="B113">
         <v>9</v>
       </c>
-      <c r="M113">
+      <c r="L113">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>28</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>12</v>
       </c>
-      <c r="M114" s="4">
+      <c r="L114" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>29</v>
       </c>
       <c r="B115">
         <v>12</v>
       </c>
-      <c r="M115">
+      <c r="L115">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>30</v>
       </c>
       <c r="B116">
         <v>12</v>
       </c>
-      <c r="M116">
+      <c r="L116">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>31</v>
       </c>
       <c r="B117">
         <v>12</v>
       </c>
-      <c r="M117">
+      <c r="L117">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>32</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>17</v>
       </c>
-      <c r="M118" s="4">
+      <c r="L118" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>33</v>
       </c>
       <c r="B119">
         <v>17</v>
       </c>
-      <c r="M119">
+      <c r="L119">
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>34</v>
       </c>
       <c r="B120">
         <v>17</v>
       </c>
-      <c r="M120">
+      <c r="L120">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>35</v>
       </c>
       <c r="B121">
         <v>17</v>
       </c>
-      <c r="M121">
+      <c r="L121">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>36</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>24</v>
       </c>
-      <c r="M122" s="4">
+      <c r="L122" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>37</v>
       </c>
       <c r="B123">
         <v>24</v>
       </c>
-      <c r="M123">
+      <c r="L123">
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>38</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>30</v>
       </c>
-      <c r="M124" s="4">
+      <c r="L124" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>39</v>
       </c>
       <c r="B125">
         <v>30</v>
       </c>
-      <c r="M125">
+      <c r="L125">
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>40</v>
       </c>
       <c r="B126">
         <v>30</v>
       </c>
-      <c r="M126">
+      <c r="L126">
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>41</v>
       </c>
       <c r="B127">
         <v>30</v>
       </c>
-      <c r="M127">
+      <c r="L127">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>42</v>
       </c>
       <c r="B128">
         <v>30</v>
       </c>
-      <c r="M128">
+      <c r="L128">
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>43</v>
       </c>
       <c r="B129">
         <v>30</v>
       </c>
-      <c r="M129">
+      <c r="L129">
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>44</v>
       </c>
       <c r="B130">
         <v>30</v>
       </c>
-      <c r="M130">
+      <c r="L130">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>45</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <v>34</v>
       </c>
-      <c r="M131" s="4">
+      <c r="L131" s="3">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="A89:AB89"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A89:AA89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -838,11 +838,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -2322,75 +2322,6 @@
                 <c:pt idx="19">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5288,11 +5219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106838272"/>
-        <c:axId val="106079744"/>
+        <c:axId val="82166144"/>
+        <c:axId val="82164352"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="106079744"/>
+        <c:axId val="82164352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5306,12 +5237,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106838272"/>
+        <c:crossAx val="82166144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="106838272"/>
+        <c:axId val="82166144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5345,7 +5276,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106079744"/>
+        <c:crossAx val="82164352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7426,11 +7357,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72906240"/>
-        <c:axId val="72907776"/>
+        <c:axId val="88204800"/>
+        <c:axId val="88206336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72906240"/>
+        <c:axId val="88204800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7440,7 +7371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72907776"/>
+        <c:crossAx val="88206336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7448,7 +7379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72907776"/>
+        <c:axId val="88206336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7460,7 +7391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72906240"/>
+        <c:crossAx val="88204800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7802,7 +7733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8757,8 +8688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8778,35 +8709,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8859,7 +8790,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -8868,10 +8799,10 @@
       <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>5</v>
       </c>
       <c r="F3" s="3">
@@ -8886,25 +8817,25 @@
       <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6"/>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="3">
         <v>4</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="3">
         <v>4</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>6</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4">
@@ -8948,7 +8879,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -9036,7 +8967,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7">
@@ -9045,10 +8976,10 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>6</v>
       </c>
       <c r="F7">
@@ -9069,7 +9000,7 @@
       <c r="M7">
         <v>4</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="3">
         <v>5</v>
       </c>
       <c r="O7">
@@ -9080,7 +9011,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8">
@@ -9110,7 +9041,7 @@
       <c r="L8">
         <v>4</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="3">
         <v>6</v>
       </c>
       <c r="N8">
@@ -9119,7 +9050,7 @@
       <c r="O8">
         <v>6</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>7</v>
       </c>
     </row>
@@ -9168,7 +9099,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10">
@@ -9186,7 +9117,7 @@
       <c r="F10" s="3">
         <v>7</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>7</v>
       </c>
       <c r="H10">
@@ -9207,7 +9138,7 @@
       <c r="N10">
         <v>5</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>8</v>
       </c>
       <c r="P10">
@@ -9215,7 +9146,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11">
@@ -9248,10 +9179,10 @@
       <c r="L11" s="3">
         <v>5</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="3">
         <v>7</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="3">
         <v>7</v>
       </c>
       <c r="O11">
@@ -9262,7 +9193,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12">
@@ -9271,10 +9202,10 @@
       <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>7</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>7</v>
       </c>
       <c r="F12">
@@ -9304,7 +9235,7 @@
       <c r="O12">
         <v>8</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>8</v>
       </c>
     </row>
@@ -9403,7 +9334,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15">
@@ -9436,7 +9367,7 @@
       <c r="L15" s="3">
         <v>8</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="3">
         <v>8</v>
       </c>
       <c r="N15">
@@ -9445,12 +9376,12 @@
       <c r="O15">
         <v>8</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16">
@@ -9486,10 +9417,10 @@
       <c r="M16">
         <v>8</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>8</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>10</v>
       </c>
       <c r="P16">
@@ -9497,7 +9428,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17">
@@ -9506,10 +9437,10 @@
       <c r="C17" s="3">
         <v>8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>8</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>8</v>
       </c>
       <c r="F17">
@@ -9539,7 +9470,7 @@
       <c r="O17">
         <v>10</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>10</v>
       </c>
     </row>
@@ -9577,7 +9508,7 @@
       <c r="L18">
         <v>8</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>11</v>
       </c>
       <c r="N18">
@@ -9591,7 +9522,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19">
@@ -9606,7 +9537,7 @@
       <c r="E19">
         <v>8</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>12</v>
       </c>
       <c r="G19" s="3">
@@ -9627,7 +9558,7 @@
       <c r="M19">
         <v>11</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>11</v>
       </c>
       <c r="O19">
@@ -9638,7 +9569,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20">
@@ -9647,10 +9578,10 @@
       <c r="C20" s="3">
         <v>12</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>12</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>12</v>
       </c>
       <c r="F20">
@@ -9685,7 +9616,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21">
@@ -9724,15 +9655,15 @@
       <c r="N21">
         <v>11</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>12</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22">
@@ -9747,7 +9678,7 @@
       <c r="E22">
         <v>12</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>14</v>
       </c>
       <c r="G22" s="3">
@@ -9765,10 +9696,10 @@
       <c r="L22">
         <v>10</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>13</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>13</v>
       </c>
       <c r="O22">
@@ -9779,7 +9710,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23">
@@ -9788,14 +9719,11 @@
       <c r="C23" s="3">
         <v>16</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>16</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>16</v>
-      </c>
-      <c r="F23">
-        <v>14</v>
       </c>
       <c r="G23">
         <v>16</v>
@@ -9841,9 +9769,6 @@
       <c r="E24">
         <v>16</v>
       </c>
-      <c r="F24">
-        <v>14</v>
-      </c>
       <c r="G24">
         <v>16</v>
       </c>
@@ -9873,7 +9798,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25">
@@ -9888,9 +9813,6 @@
       <c r="E25">
         <v>16</v>
       </c>
-      <c r="F25">
-        <v>14</v>
-      </c>
       <c r="G25" s="3">
         <v>17</v>
       </c>
@@ -9915,7 +9837,7 @@
       <c r="O25">
         <v>12</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9935,9 +9857,6 @@
       <c r="E26">
         <v>16</v>
       </c>
-      <c r="F26">
-        <v>14</v>
-      </c>
       <c r="G26">
         <v>17</v>
       </c>
@@ -9959,7 +9878,7 @@
       <c r="N26">
         <v>13</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <v>14</v>
       </c>
       <c r="P26">
@@ -9967,7 +9886,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27">
@@ -9976,14 +9895,11 @@
       <c r="C27" s="3">
         <v>19</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>18</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>19</v>
-      </c>
-      <c r="F27">
-        <v>14</v>
       </c>
       <c r="G27">
         <v>17</v>
@@ -10000,16 +9916,16 @@
       <c r="L27" s="3">
         <v>14</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>17</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>18</v>
       </c>
       <c r="O27">
         <v>14</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="6">
         <v>19</v>
       </c>
     </row>
@@ -10029,9 +9945,6 @@
       <c r="E28">
         <v>19</v>
       </c>
-      <c r="F28">
-        <v>14</v>
-      </c>
       <c r="G28">
         <v>17</v>
       </c>
@@ -10076,9 +9989,6 @@
       <c r="E29">
         <v>19</v>
       </c>
-      <c r="F29">
-        <v>14</v>
-      </c>
       <c r="G29">
         <v>17</v>
       </c>
@@ -10108,7 +10018,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30">
@@ -10123,9 +10033,6 @@
       <c r="E30">
         <v>19</v>
       </c>
-      <c r="F30">
-        <v>14</v>
-      </c>
       <c r="G30">
         <v>17</v>
       </c>
@@ -10150,12 +10057,12 @@
       <c r="O30">
         <v>14</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31">
@@ -10164,14 +10071,11 @@
       <c r="C31" s="3">
         <v>22</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>21</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>22</v>
-      </c>
-      <c r="F31">
-        <v>14</v>
       </c>
       <c r="G31" s="3">
         <v>22</v>
@@ -10188,10 +10092,10 @@
       <c r="L31" s="3">
         <v>18</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>20</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>21</v>
       </c>
       <c r="O31">
@@ -10202,7 +10106,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32">
@@ -10217,9 +10121,6 @@
       <c r="E32">
         <v>22</v>
       </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
       <c r="G32">
         <v>22</v>
       </c>
@@ -10241,7 +10142,7 @@
       <c r="N32">
         <v>21</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="6">
         <v>18</v>
       </c>
       <c r="P32">
@@ -10264,9 +10165,6 @@
       <c r="E33">
         <v>22</v>
       </c>
-      <c r="F33">
-        <v>14</v>
-      </c>
       <c r="G33">
         <v>22</v>
       </c>
@@ -10296,7 +10194,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34">
@@ -10310,9 +10208,6 @@
       </c>
       <c r="E34">
         <v>22</v>
-      </c>
-      <c r="F34">
-        <v>14</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -10358,9 +10253,6 @@
       <c r="E35">
         <v>22</v>
       </c>
-      <c r="F35">
-        <v>14</v>
-      </c>
       <c r="G35">
         <v>22</v>
       </c>
@@ -10405,9 +10297,6 @@
       <c r="E36">
         <v>22</v>
       </c>
-      <c r="F36">
-        <v>14</v>
-      </c>
       <c r="G36">
         <v>22</v>
       </c>
@@ -10437,7 +10326,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37">
@@ -10446,14 +10335,11 @@
       <c r="C37" s="3">
         <v>26</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>27</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>26</v>
-      </c>
-      <c r="F37">
-        <v>14</v>
       </c>
       <c r="G37" s="3">
         <v>26</v>
@@ -10470,7 +10356,7 @@
       <c r="L37">
         <v>22</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>25</v>
       </c>
       <c r="N37">
@@ -10479,12 +10365,12 @@
       <c r="O37">
         <v>18</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38">
@@ -10499,9 +10385,6 @@
       <c r="E38">
         <v>26</v>
       </c>
-      <c r="F38">
-        <v>14</v>
-      </c>
       <c r="G38">
         <v>26</v>
       </c>
@@ -10520,10 +10403,10 @@
       <c r="M38">
         <v>25</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>26</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <v>22</v>
       </c>
       <c r="P38">
@@ -10531,7 +10414,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39">
@@ -10546,9 +10429,6 @@
       <c r="E39">
         <v>26</v>
       </c>
-      <c r="F39">
-        <v>14</v>
-      </c>
       <c r="G39">
         <v>26</v>
       </c>
@@ -10573,7 +10453,7 @@
       <c r="O39">
         <v>22</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="6">
         <v>28</v>
       </c>
     </row>
@@ -10593,9 +10473,6 @@
       <c r="E40">
         <v>26</v>
       </c>
-      <c r="F40">
-        <v>14</v>
-      </c>
       <c r="G40">
         <v>26</v>
       </c>
@@ -10625,7 +10502,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41">
@@ -10634,14 +10511,11 @@
       <c r="C41" s="3">
         <v>30</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>31</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>30</v>
-      </c>
-      <c r="F41">
-        <v>14</v>
       </c>
       <c r="G41" s="3">
         <v>30</v>
@@ -10658,16 +10532,16 @@
       <c r="L41" s="3">
         <v>29</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="6">
         <v>29</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="6">
         <v>30</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="6">
         <v>29</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="3">
         <v>30</v>
       </c>
     </row>
@@ -10687,9 +10561,6 @@
       <c r="E42">
         <v>30</v>
       </c>
-      <c r="F42">
-        <v>14</v>
-      </c>
       <c r="G42">
         <v>30</v>
       </c>
@@ -10734,9 +10605,6 @@
       <c r="E43">
         <v>30</v>
       </c>
-      <c r="F43">
-        <v>14</v>
-      </c>
       <c r="G43">
         <v>30</v>
       </c>
@@ -10781,9 +10649,6 @@
       <c r="E44">
         <v>30</v>
       </c>
-      <c r="F44">
-        <v>14</v>
-      </c>
       <c r="G44">
         <v>30</v>
       </c>
@@ -10813,7 +10678,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45">
@@ -10822,14 +10687,11 @@
       <c r="C45" s="3">
         <v>34</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>35</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>34</v>
-      </c>
-      <c r="F45">
-        <v>14</v>
       </c>
       <c r="G45" s="3">
         <v>34</v>
@@ -10846,16 +10708,16 @@
       <c r="L45" s="3">
         <v>32</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>33</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>34</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <v>33</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="6">
         <v>33</v>
       </c>
     </row>
@@ -10863,41 +10725,41 @@
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -3692,6 +3692,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5202,7 +5205,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5219,11 +5222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82166144"/>
-        <c:axId val="82164352"/>
+        <c:axId val="41369600"/>
+        <c:axId val="41367808"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="82164352"/>
+        <c:axId val="41367808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5237,12 +5240,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82166144"/>
+        <c:crossAx val="41369600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="82166144"/>
+        <c:axId val="41369600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5276,7 +5279,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82164352"/>
+        <c:crossAx val="41367808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7357,11 +7360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88204800"/>
-        <c:axId val="88206336"/>
+        <c:axId val="41510016"/>
+        <c:axId val="41511552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88204800"/>
+        <c:axId val="41510016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7371,7 +7374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88206336"/>
+        <c:crossAx val="41511552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7379,7 +7382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88206336"/>
+        <c:axId val="41511552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7391,7 +7394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88204800"/>
+        <c:crossAx val="41510016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7733,7 +7736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8688,8 +8691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8817,7 +8820,9 @@
       <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>3</v>
+      </c>
       <c r="L3">
         <v>1</v>
       </c>
@@ -8830,7 +8835,7 @@
       <c r="O3" s="6">
         <v>6</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="3">
         <v>5</v>
       </c>
     </row>
@@ -8841,7 +8846,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>5</v>
       </c>
       <c r="D4">
@@ -9010,7 +9015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9050,11 +9055,11 @@
       <c r="O8">
         <v>6</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9235,7 +9240,7 @@
       <c r="O12">
         <v>8</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="3">
         <v>8</v>
       </c>
     </row>
@@ -9286,7 +9291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9333,7 +9338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9376,7 +9381,7 @@
       <c r="O15">
         <v>8</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="3">
         <v>9</v>
       </c>
     </row>
@@ -9417,7 +9422,7 @@
       <c r="M16">
         <v>8</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>8</v>
       </c>
       <c r="O16" s="6">
@@ -9470,7 +9475,7 @@
       <c r="O17">
         <v>10</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="3">
         <v>10</v>
       </c>
     </row>
@@ -9508,7 +9513,7 @@
       <c r="L18">
         <v>8</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="3">
         <v>11</v>
       </c>
       <c r="N18">
@@ -9558,7 +9563,7 @@
       <c r="M19">
         <v>11</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="3">
         <v>11</v>
       </c>
       <c r="O19">
@@ -9658,7 +9663,7 @@
       <c r="O21" s="6">
         <v>12</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>14</v>
       </c>
     </row>
@@ -9696,10 +9701,10 @@
       <c r="L22">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="3">
         <v>13</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="3">
         <v>13</v>
       </c>
       <c r="O22">
@@ -9753,7 +9758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9797,7 +9802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9837,7 +9842,7 @@
       <c r="O25">
         <v>12</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="3">
         <v>16</v>
       </c>
     </row>
@@ -9916,16 +9921,16 @@
       <c r="L27" s="3">
         <v>14</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="3">
         <v>17</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="3">
         <v>18</v>
       </c>
       <c r="O27">
         <v>14</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="3">
         <v>19</v>
       </c>
     </row>
@@ -9973,7 +9978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10017,7 +10022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -10057,7 +10062,7 @@
       <c r="O30">
         <v>14</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="3">
         <v>22</v>
       </c>
     </row>
@@ -10092,10 +10097,10 @@
       <c r="L31" s="3">
         <v>18</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="3">
         <v>20</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="3">
         <v>21</v>
       </c>
       <c r="O31">
@@ -10356,7 +10361,7 @@
       <c r="L37">
         <v>22</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="3">
         <v>25</v>
       </c>
       <c r="N37">
@@ -10365,7 +10370,7 @@
       <c r="O37">
         <v>18</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="3">
         <v>26</v>
       </c>
     </row>
@@ -10403,7 +10408,7 @@
       <c r="M38">
         <v>25</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="3">
         <v>26</v>
       </c>
       <c r="O38" s="6">
@@ -10413,7 +10418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -10453,11 +10458,11 @@
       <c r="O39">
         <v>22</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10532,10 +10537,10 @@
       <c r="L41" s="3">
         <v>29</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="3">
         <v>29</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="3">
         <v>30</v>
       </c>
       <c r="O41" s="6">
@@ -10708,17 +10713,17 @@
       <c r="L45" s="3">
         <v>32</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="3">
         <v>33</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="3">
         <v>34</v>
       </c>
       <c r="O45" s="6">
         <v>33</v>
       </c>
-      <c r="P45" s="6">
-        <v>33</v>
+      <c r="P45" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -5222,11 +5222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41369600"/>
-        <c:axId val="41367808"/>
+        <c:axId val="51102080"/>
+        <c:axId val="51100288"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="41367808"/>
+        <c:axId val="51100288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5240,12 +5240,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41369600"/>
+        <c:crossAx val="51102080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="41369600"/>
+        <c:axId val="51102080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5279,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41367808"/>
+        <c:crossAx val="51100288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7360,11 +7360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41510016"/>
-        <c:axId val="41511552"/>
+        <c:axId val="51373568"/>
+        <c:axId val="51375104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41510016"/>
+        <c:axId val="51373568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7374,7 +7374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41511552"/>
+        <c:crossAx val="51375104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7382,7 +7382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41511552"/>
+        <c:axId val="51375104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7394,14 +7394,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41510016"/>
+        <c:crossAx val="51373568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7736,7 +7735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8691,8 +8690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8832,7 +8831,7 @@
       <c r="N3" s="3">
         <v>4</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="3">
         <v>6</v>
       </c>
       <c r="P3" s="3">
@@ -9059,7 +9058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -9122,7 +9121,7 @@
       <c r="F10" s="3">
         <v>7</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>7</v>
       </c>
       <c r="H10">
@@ -9143,14 +9142,14 @@
       <c r="N10">
         <v>5</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="3">
         <v>8</v>
       </c>
       <c r="P10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9425,7 +9424,7 @@
       <c r="N16" s="3">
         <v>8</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="3">
         <v>10</v>
       </c>
       <c r="P16">
@@ -9479,7 +9478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -9542,7 +9541,7 @@
       <c r="E19">
         <v>8</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>12</v>
       </c>
       <c r="G19" s="3">

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -5222,11 +5222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51102080"/>
-        <c:axId val="51100288"/>
+        <c:axId val="70238592"/>
+        <c:axId val="70236800"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="51100288"/>
+        <c:axId val="70236800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5240,12 +5240,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51102080"/>
+        <c:crossAx val="70238592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="51102080"/>
+        <c:axId val="70238592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5279,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51100288"/>
+        <c:crossAx val="70236800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7360,11 +7360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51373568"/>
-        <c:axId val="51375104"/>
+        <c:axId val="71824896"/>
+        <c:axId val="71826432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51373568"/>
+        <c:axId val="71824896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7374,7 +7374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51375104"/>
+        <c:crossAx val="71826432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7382,7 +7382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51375104"/>
+        <c:axId val="71826432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7394,13 +7394,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51373568"/>
+        <c:crossAx val="71824896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7735,7 +7736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8690,8 +8691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9682,7 +9683,7 @@
       <c r="E22">
         <v>12</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>14</v>
       </c>
       <c r="G22" s="3">
@@ -10731,6 +10732,9 @@
       </c>
       <c r="D46" s="6">
         <v>37</v>
+      </c>
+      <c r="H46" s="6">
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -28,6 +28,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Garion132</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Garion132:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Elven Bowmen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Garion132:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Elven Phalanx</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="224">
   <si>
@@ -707,7 +765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +802,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -5222,11 +5293,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70238592"/>
-        <c:axId val="70236800"/>
+        <c:axId val="61911424"/>
+        <c:axId val="61909632"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="70236800"/>
+        <c:axId val="61909632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5240,12 +5311,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70238592"/>
+        <c:crossAx val="61911424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="70238592"/>
+        <c:axId val="61911424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5350,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70236800"/>
+        <c:crossAx val="61909632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7360,11 +7431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71824896"/>
-        <c:axId val="71826432"/>
+        <c:axId val="69064192"/>
+        <c:axId val="69065728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71824896"/>
+        <c:axId val="69064192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7374,7 +7445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71826432"/>
+        <c:crossAx val="69065728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7382,7 +7453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71826432"/>
+        <c:axId val="69065728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7394,14 +7465,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71824896"/>
+        <c:crossAx val="69064192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7736,7 +7806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8688,11 +8758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U45" sqref="U45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8802,10 +8872,10 @@
       <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>5</v>
       </c>
       <c r="F3" s="3">
@@ -8927,7 +8997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8971,7 +9041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -8981,10 +9051,10 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
       <c r="F7">
@@ -9015,7 +9085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9150,7 +9220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9197,7 +9267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -9207,10 +9277,10 @@
       <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>7</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>7</v>
       </c>
       <c r="F12">
@@ -9244,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9385,7 +9455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9432,7 +9502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -9442,10 +9512,10 @@
       <c r="C17" s="3">
         <v>8</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>8</v>
       </c>
       <c r="F17">
@@ -9479,7 +9549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9526,7 +9596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -9573,7 +9643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -9583,10 +9653,10 @@
       <c r="C20" s="3">
         <v>12</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>12</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>12</v>
       </c>
       <c r="F20">
@@ -9724,7 +9794,7 @@
       <c r="C23" s="3">
         <v>16</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>16</v>
       </c>
       <c r="E23" s="6">
@@ -9900,7 +9970,7 @@
       <c r="C27" s="3">
         <v>19</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>18</v>
       </c>
       <c r="E27" s="6">
@@ -10076,7 +10146,7 @@
       <c r="C31" s="3">
         <v>22</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>21</v>
       </c>
       <c r="E31" s="6">
@@ -11277,5 +11347,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -3766,6 +3766,132 @@
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5293,11 +5419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61911424"/>
-        <c:axId val="61909632"/>
+        <c:axId val="45728128"/>
+        <c:axId val="45722240"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="61909632"/>
+        <c:axId val="45722240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5311,12 +5437,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61911424"/>
+        <c:crossAx val="45728128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="61911424"/>
+        <c:axId val="45728128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5350,7 +5476,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61909632"/>
+        <c:crossAx val="45722240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7431,11 +7557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69064192"/>
-        <c:axId val="69065728"/>
+        <c:axId val="46126592"/>
+        <c:axId val="46128128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69064192"/>
+        <c:axId val="46126592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7445,7 +7571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69065728"/>
+        <c:crossAx val="46128128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7453,7 +7579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69065728"/>
+        <c:axId val="46128128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7465,7 +7591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69064192"/>
+        <c:crossAx val="46126592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8761,8 +8887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8909,7 +9035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -8937,6 +9063,9 @@
       <c r="J4" s="3">
         <v>6</v>
       </c>
+      <c r="K4" s="6">
+        <v>6</v>
+      </c>
       <c r="L4" s="3">
         <v>2</v>
       </c>
@@ -8953,7 +9082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -8979,6 +9108,9 @@
         <v>6</v>
       </c>
       <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
       <c r="L5">
@@ -9025,6 +9157,9 @@
       <c r="J6">
         <v>6</v>
       </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
       <c r="L6">
         <v>2</v>
       </c>
@@ -9041,7 +9176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -9069,6 +9204,9 @@
       <c r="J7">
         <v>6</v>
       </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
       <c r="L7" s="3">
         <v>4</v>
       </c>
@@ -9085,7 +9223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9113,6 +9251,9 @@
       <c r="J8" s="3">
         <v>7</v>
       </c>
+      <c r="K8" s="6">
+        <v>7</v>
+      </c>
       <c r="L8">
         <v>4</v>
       </c>
@@ -9129,7 +9270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9157,6 +9298,9 @@
       <c r="J9">
         <v>7</v>
       </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
       <c r="L9">
         <v>4</v>
       </c>
@@ -9173,7 +9317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -9204,6 +9348,9 @@
       <c r="J10">
         <v>7</v>
       </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
       <c r="L10">
         <v>4</v>
       </c>
@@ -9220,7 +9367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9251,6 +9398,9 @@
       <c r="J11" s="3">
         <v>9</v>
       </c>
+      <c r="K11" s="6">
+        <v>9</v>
+      </c>
       <c r="L11" s="3">
         <v>5</v>
       </c>
@@ -9267,7 +9417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -9296,6 +9446,9 @@
         <v>8</v>
       </c>
       <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
         <v>9</v>
       </c>
       <c r="L12">
@@ -9345,6 +9498,9 @@
       <c r="J13">
         <v>9</v>
       </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
       <c r="L13">
         <v>5</v>
       </c>
@@ -9361,7 +9517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9392,6 +9548,9 @@
       <c r="J14">
         <v>9</v>
       </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
       <c r="L14">
         <v>5</v>
       </c>
@@ -9408,7 +9567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9439,6 +9598,9 @@
       <c r="J15">
         <v>9</v>
       </c>
+      <c r="K15" s="6">
+        <v>10</v>
+      </c>
       <c r="L15" s="3">
         <v>8</v>
       </c>
@@ -9455,7 +9617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9485,6 +9647,9 @@
       </c>
       <c r="J16" s="3">
         <v>11</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
       </c>
       <c r="L16">
         <v>8</v>
@@ -9533,6 +9698,9 @@
       <c r="J17">
         <v>11</v>
       </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
       <c r="L17">
         <v>8</v>
       </c>
@@ -9550,7 +9718,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18">
@@ -9580,6 +9748,9 @@
       <c r="J18">
         <v>11</v>
       </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
       <c r="L18">
         <v>8</v>
       </c>
@@ -9596,7 +9767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -9627,6 +9798,9 @@
       <c r="J19">
         <v>11</v>
       </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
       <c r="L19" s="3">
         <v>10</v>
       </c>
@@ -9643,7 +9817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -9673,6 +9847,9 @@
       </c>
       <c r="J20">
         <v>11</v>
+      </c>
+      <c r="K20" s="6">
+        <v>15</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -9721,6 +9898,9 @@
       <c r="J21" s="3">
         <v>16</v>
       </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
       <c r="L21">
         <v>10</v>
       </c>
@@ -9768,6 +9948,9 @@
       <c r="J22">
         <v>16</v>
       </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
       <c r="L22">
         <v>10</v>
       </c>
@@ -9812,6 +9995,9 @@
       <c r="J23">
         <v>16</v>
       </c>
+      <c r="K23">
+        <v>15</v>
+      </c>
       <c r="L23" s="3">
         <v>12</v>
       </c>
@@ -9856,6 +10042,9 @@
       <c r="J24">
         <v>16</v>
       </c>
+      <c r="K24">
+        <v>15</v>
+      </c>
       <c r="L24">
         <v>12</v>
       </c>
@@ -9900,6 +10089,9 @@
       <c r="J25">
         <v>16</v>
       </c>
+      <c r="K25">
+        <v>15</v>
+      </c>
       <c r="L25">
         <v>12</v>
       </c>
@@ -9944,6 +10136,9 @@
       <c r="J26">
         <v>16</v>
       </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
       <c r="L26">
         <v>12</v>
       </c>
@@ -9988,6 +10183,9 @@
       <c r="J27">
         <v>16</v>
       </c>
+      <c r="K27" s="6">
+        <v>19</v>
+      </c>
       <c r="L27" s="3">
         <v>14</v>
       </c>
@@ -10032,6 +10230,9 @@
       <c r="J28">
         <v>16</v>
       </c>
+      <c r="K28">
+        <v>19</v>
+      </c>
       <c r="L28">
         <v>14</v>
       </c>
@@ -10076,6 +10277,9 @@
       <c r="J29">
         <v>16</v>
       </c>
+      <c r="K29">
+        <v>19</v>
+      </c>
       <c r="L29">
         <v>14</v>
       </c>
@@ -10120,6 +10324,9 @@
       <c r="J30">
         <v>16</v>
       </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
       <c r="L30">
         <v>14</v>
       </c>
@@ -10164,6 +10371,9 @@
       <c r="J31" s="3">
         <v>21</v>
       </c>
+      <c r="K31" s="6">
+        <v>22</v>
+      </c>
       <c r="L31" s="3">
         <v>18</v>
       </c>
@@ -10208,6 +10418,9 @@
       <c r="J32">
         <v>21</v>
       </c>
+      <c r="K32">
+        <v>22</v>
+      </c>
       <c r="L32">
         <v>18</v>
       </c>
@@ -10252,6 +10465,9 @@
       <c r="J33">
         <v>21</v>
       </c>
+      <c r="K33">
+        <v>22</v>
+      </c>
       <c r="L33">
         <v>18</v>
       </c>
@@ -10296,6 +10512,9 @@
       <c r="J34">
         <v>21</v>
       </c>
+      <c r="K34">
+        <v>22</v>
+      </c>
       <c r="L34" s="3">
         <v>22</v>
       </c>
@@ -10340,6 +10559,9 @@
       <c r="J35">
         <v>21</v>
       </c>
+      <c r="K35">
+        <v>22</v>
+      </c>
       <c r="L35">
         <v>22</v>
       </c>
@@ -10384,6 +10606,9 @@
       <c r="J36">
         <v>21</v>
       </c>
+      <c r="K36">
+        <v>22</v>
+      </c>
       <c r="L36">
         <v>22</v>
       </c>
@@ -10410,7 +10635,7 @@
       <c r="C37" s="3">
         <v>26</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <v>27</v>
       </c>
       <c r="E37" s="6">
@@ -10427,6 +10652,9 @@
       </c>
       <c r="J37" s="3">
         <v>25</v>
+      </c>
+      <c r="K37" s="6">
+        <v>26</v>
       </c>
       <c r="L37">
         <v>22</v>
@@ -10472,6 +10700,9 @@
       <c r="J38">
         <v>25</v>
       </c>
+      <c r="K38">
+        <v>26</v>
+      </c>
       <c r="L38" s="3">
         <v>25</v>
       </c>
@@ -10516,6 +10747,9 @@
       <c r="J39">
         <v>25</v>
       </c>
+      <c r="K39">
+        <v>26</v>
+      </c>
       <c r="L39">
         <v>25</v>
       </c>
@@ -10560,6 +10794,9 @@
       <c r="J40">
         <v>25</v>
       </c>
+      <c r="K40">
+        <v>26</v>
+      </c>
       <c r="L40">
         <v>25</v>
       </c>
@@ -10586,7 +10823,7 @@
       <c r="C41" s="3">
         <v>30</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="3">
         <v>31</v>
       </c>
       <c r="E41" s="6">
@@ -10602,6 +10839,9 @@
         <v>30</v>
       </c>
       <c r="J41" s="3">
+        <v>29</v>
+      </c>
+      <c r="K41" s="6">
         <v>29</v>
       </c>
       <c r="L41" s="3">
@@ -10648,6 +10888,9 @@
       <c r="J42">
         <v>29</v>
       </c>
+      <c r="K42">
+        <v>29</v>
+      </c>
       <c r="L42">
         <v>29</v>
       </c>
@@ -10665,7 +10908,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43">
@@ -10690,6 +10933,9 @@
         <v>30</v>
       </c>
       <c r="J43">
+        <v>29</v>
+      </c>
+      <c r="K43">
         <v>29</v>
       </c>
       <c r="L43">
@@ -10736,6 +10982,9 @@
       <c r="J44">
         <v>29</v>
       </c>
+      <c r="K44">
+        <v>29</v>
+      </c>
       <c r="L44">
         <v>29</v>
       </c>
@@ -10762,7 +11011,7 @@
       <c r="C45" s="3">
         <v>34</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
         <v>35</v>
       </c>
       <c r="E45" s="6">
@@ -10780,6 +11029,9 @@
       <c r="J45" s="3">
         <v>34</v>
       </c>
+      <c r="K45" s="6">
+        <v>34</v>
+      </c>
       <c r="L45" s="3">
         <v>32</v>
       </c>
@@ -10796,18 +11048,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
         <v>37</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>208</v>

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="233">
   <si>
     <t>notes</t>
   </si>
@@ -759,6 +759,33 @@
   </si>
   <si>
     <t>Generic</t>
+  </si>
+  <si>
+    <t>Spiders, Ugluk, Settled Humans</t>
+  </si>
+  <si>
+    <t>Spiders, Ugluk, Settled Humans, Elves</t>
+  </si>
+  <si>
+    <t>Settled Humans</t>
+  </si>
+  <si>
+    <t>Settled Humans, Spiders</t>
+  </si>
+  <si>
+    <t>Dunirr, Moon Elves, Lake Elves, Ulguir</t>
+  </si>
+  <si>
+    <t>Dunirr, Ulguir, Settled Humans, Moon Elves, Lake Elves</t>
+  </si>
+  <si>
+    <t>Dunirr, Ulguir, Settled Humans, Moon Elves, Lake Elves, Scurians</t>
+  </si>
+  <si>
+    <t>Sun Elves</t>
+  </si>
+  <si>
+    <t>Spiders, Ugluk</t>
   </si>
 </sst>
 </file>
@@ -5419,11 +5446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45728128"/>
-        <c:axId val="45722240"/>
+        <c:axId val="65781760"/>
+        <c:axId val="65775872"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="45722240"/>
+        <c:axId val="65775872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5437,12 +5464,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45728128"/>
+        <c:crossAx val="65781760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="45728128"/>
+        <c:axId val="65781760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,14 +5496,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45722240"/>
+        <c:crossAx val="65775872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5486,7 +5512,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7557,11 +7582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46126592"/>
-        <c:axId val="46128128"/>
+        <c:axId val="66704512"/>
+        <c:axId val="66706048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46126592"/>
+        <c:axId val="66704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7571,7 +7596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46128128"/>
+        <c:crossAx val="66706048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7579,7 +7604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46128128"/>
+        <c:axId val="66706048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7591,7 +7616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46126592"/>
+        <c:crossAx val="66704512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8887,8 +8912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9034,6 +9059,9 @@
       <c r="P3" s="3">
         <v>5</v>
       </c>
+      <c r="U3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -9081,6 +9109,9 @@
       <c r="P4">
         <v>5</v>
       </c>
+      <c r="U4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -9128,6 +9159,9 @@
       <c r="P5">
         <v>5</v>
       </c>
+      <c r="U5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -9175,6 +9209,9 @@
       <c r="P6">
         <v>5</v>
       </c>
+      <c r="U6" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -9222,6 +9259,9 @@
       <c r="P7">
         <v>5</v>
       </c>
+      <c r="U7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -9269,6 +9309,9 @@
       <c r="P8" s="3">
         <v>7</v>
       </c>
+      <c r="U8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -9316,6 +9359,9 @@
       <c r="P9">
         <v>7</v>
       </c>
+      <c r="U9" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -9366,6 +9412,9 @@
       <c r="P10">
         <v>7</v>
       </c>
+      <c r="U10" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -9416,6 +9465,9 @@
       <c r="P11">
         <v>7</v>
       </c>
+      <c r="U11" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -9466,6 +9518,9 @@
       <c r="P12" s="3">
         <v>8</v>
       </c>
+      <c r="U12" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -9516,6 +9571,9 @@
       <c r="P13">
         <v>8</v>
       </c>
+      <c r="U13" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -9566,6 +9624,9 @@
       <c r="P14">
         <v>8</v>
       </c>
+      <c r="U14" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -9616,6 +9677,9 @@
       <c r="P15" s="3">
         <v>9</v>
       </c>
+      <c r="U15" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -9666,8 +9730,11 @@
       <c r="P16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -9716,8 +9783,11 @@
       <c r="P17" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -9766,8 +9836,11 @@
       <c r="P18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -9816,8 +9889,11 @@
       <c r="P19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -9866,8 +9942,11 @@
       <c r="P20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9916,8 +9995,11 @@
       <c r="P21" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -9966,8 +10048,11 @@
       <c r="P22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -10013,8 +10098,11 @@
       <c r="P23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10060,8 +10148,11 @@
       <c r="P24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -10107,8 +10198,11 @@
       <c r="P25" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10154,8 +10248,11 @@
       <c r="P26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -10201,8 +10298,11 @@
       <c r="P27" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10248,8 +10348,11 @@
       <c r="P28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10295,8 +10398,11 @@
       <c r="P29">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -10342,8 +10448,11 @@
       <c r="P30" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -10389,8 +10498,11 @@
       <c r="P31">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -10436,8 +10548,11 @@
       <c r="P32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10483,8 +10598,11 @@
       <c r="P33">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -10530,8 +10648,11 @@
       <c r="P34">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10577,8 +10698,11 @@
       <c r="P35">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10624,8 +10748,11 @@
       <c r="P36">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -10671,8 +10798,11 @@
       <c r="P37" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -10718,8 +10848,11 @@
       <c r="P38">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -10765,8 +10898,11 @@
       <c r="P39" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10812,8 +10948,11 @@
       <c r="P40">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -10859,8 +10998,11 @@
       <c r="P41" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10906,8 +11048,11 @@
       <c r="P42">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10953,8 +11098,11 @@
       <c r="P43">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11000,8 +11148,11 @@
       <c r="P44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -11047,8 +11198,11 @@
       <c r="P45" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -11057,6 +11211,9 @@
       </c>
       <c r="H46" s="3">
         <v>35</v>
+      </c>
+      <c r="U46" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -5446,11 +5446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65781760"/>
-        <c:axId val="65775872"/>
+        <c:axId val="59293696"/>
+        <c:axId val="59287808"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="65775872"/>
+        <c:axId val="59287808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5464,12 +5464,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65781760"/>
+        <c:crossAx val="59293696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="65781760"/>
+        <c:axId val="59293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,13 +5496,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65775872"/>
+        <c:crossAx val="59287808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5512,6 +5513,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7582,11 +7584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66704512"/>
-        <c:axId val="66706048"/>
+        <c:axId val="59692160"/>
+        <c:axId val="59693696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66704512"/>
+        <c:axId val="59692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7596,7 +7598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66706048"/>
+        <c:crossAx val="59693696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7604,7 +7606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66706048"/>
+        <c:axId val="59693696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7616,7 +7618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66704512"/>
+        <c:crossAx val="59692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7957,7 +7959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8912,8 +8914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9946,7 +9948,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9989,7 +9991,7 @@
       <c r="N21">
         <v>11</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>12</v>
       </c>
       <c r="P21" s="3">
@@ -9999,7 +10001,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -10152,7 +10154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -10202,7 +10204,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10242,7 +10244,7 @@
       <c r="N26">
         <v>13</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="3">
         <v>14</v>
       </c>
       <c r="P26">
@@ -10502,7 +10504,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -10542,7 +10544,7 @@
       <c r="N32">
         <v>21</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="3">
         <v>18</v>
       </c>
       <c r="P32">
@@ -10552,7 +10554,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -10842,7 +10844,7 @@
       <c r="N38" s="3">
         <v>26</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="3">
         <v>22</v>
       </c>
       <c r="P38">
@@ -10852,7 +10854,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -10992,7 +10994,7 @@
       <c r="N41" s="3">
         <v>30</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="3">
         <v>29</v>
       </c>
       <c r="P41" s="3">
@@ -11192,7 +11194,7 @@
       <c r="N45" s="3">
         <v>34</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="3">
         <v>33</v>
       </c>
       <c r="P45" s="3">

--- a/planning/techs.xlsx
+++ b/planning/techs.xlsx
@@ -5446,11 +5446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59293696"/>
-        <c:axId val="59287808"/>
+        <c:axId val="58314752"/>
+        <c:axId val="58304768"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="59287808"/>
+        <c:axId val="58304768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5464,12 +5464,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59293696"/>
+        <c:crossAx val="58314752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="59293696"/>
+        <c:axId val="58314752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,7 +5503,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59287808"/>
+        <c:crossAx val="58304768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7584,11 +7584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59692160"/>
-        <c:axId val="59693696"/>
+        <c:axId val="57701504"/>
+        <c:axId val="57703040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59692160"/>
+        <c:axId val="57701504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7598,7 +7598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59693696"/>
+        <c:crossAx val="57703040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7606,7 +7606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59693696"/>
+        <c:axId val="57703040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7618,7 +7618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59692160"/>
+        <c:crossAx val="57701504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7959,7 +7959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8914,8 +8914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
